--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pmch-Mchr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pmch-Mchr1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4690863333333333</v>
+        <v>0.3992230000000001</v>
       </c>
       <c r="H2">
-        <v>1.407259</v>
+        <v>1.197669</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,25 +555,25 @@
         <v>0.140098</v>
       </c>
       <c r="N2">
-        <v>0.4202939999999999</v>
+        <v>0.420294</v>
       </c>
       <c r="O2">
-        <v>0.4925050973774871</v>
+        <v>0.4537347012141868</v>
       </c>
       <c r="P2">
-        <v>0.4925050973774871</v>
+        <v>0.4537347012141868</v>
       </c>
       <c r="Q2">
-        <v>0.06571805712733332</v>
+        <v>0.05593034385400001</v>
       </c>
       <c r="R2">
-        <v>0.5914625141459999</v>
+        <v>0.503373094686</v>
       </c>
       <c r="S2">
-        <v>0.4925050973774871</v>
+        <v>0.4537347012141868</v>
       </c>
       <c r="T2">
-        <v>0.4925050973774871</v>
+        <v>0.4537347012141868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4690863333333333</v>
+        <v>0.3992230000000001</v>
       </c>
       <c r="H3">
-        <v>1.407259</v>
+        <v>1.197669</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.250523</v>
       </c>
       <c r="O3">
-        <v>0.2935655862570016</v>
+        <v>0.270455867921697</v>
       </c>
       <c r="P3">
-        <v>0.2935655862570016</v>
+        <v>0.270455867921697</v>
       </c>
       <c r="Q3">
-        <v>0.03917230516188889</v>
+        <v>0.03333818120966667</v>
       </c>
       <c r="R3">
-        <v>0.352550746457</v>
+        <v>0.300043630887</v>
       </c>
       <c r="S3">
-        <v>0.2935655862570016</v>
+        <v>0.270455867921697</v>
       </c>
       <c r="T3">
-        <v>0.2935655862570016</v>
+        <v>0.270455867921697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>20</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.3992230000000001</v>
+      </c>
+      <c r="H4">
+        <v>1.197669</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.4690863333333333</v>
-      </c>
-      <c r="H4">
-        <v>1.407259</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.06085433333333334</v>
+        <v>0.08516066666666666</v>
       </c>
       <c r="N4">
-        <v>0.182563</v>
+        <v>0.255482</v>
       </c>
       <c r="O4">
-        <v>0.2139293163655113</v>
+        <v>0.2758094308641162</v>
       </c>
       <c r="P4">
-        <v>0.2139293163655113</v>
+        <v>0.2758094308641162</v>
       </c>
       <c r="Q4">
-        <v>0.02854593609077778</v>
+        <v>0.03399809682866667</v>
       </c>
       <c r="R4">
-        <v>0.256913424817</v>
+        <v>0.305982871458</v>
       </c>
       <c r="S4">
-        <v>0.2139293163655113</v>
+        <v>0.2758094308641162</v>
       </c>
       <c r="T4">
-        <v>0.2139293163655113</v>
+        <v>0.2758094308641162</v>
       </c>
     </row>
   </sheetData>
